--- a/Data/EC/NIT-9000932199.xlsx
+++ b/Data/EC/NIT-9000932199.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6615EA95-EDC9-41F1-A30E-010DB316BA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BFB8254-0C1B-4E80-B525-BE4C27213A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B2240A55-50BB-4D97-A202-D6EA1A1AF5A6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{73668D5B-012E-473C-AB91-B62A9A5092CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -62,16 +62,16 @@
     <t>CONDOMINIO MAR ABIERTO P.H</t>
   </si>
   <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>1047511755</t>
-  </si>
-  <si>
-    <t>DAYANIS MARCELA JULIO ALVAREZ</t>
-  </si>
-  <si>
-    <t>2212</t>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>810938027101980</t>
+  </si>
+  <si>
+    <t>EDGAR ALEXANDER RAMIREZ BELANDRIA</t>
+  </si>
+  <si>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -170,7 +170,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -183,9 +185,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -340,23 +340,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -378,10 +378,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -419,13 +419,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>667900</xdr:colOff>
+      <xdr:colOff>674250</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>430650</xdr:colOff>
+      <xdr:colOff>437000</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -434,7 +434,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77F65408-D980-72D9-6611-9B12ED1B1F07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16C828F0-8964-2A2D-96F3-956A9C598226}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -456,7 +456,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="921900" y="246450"/>
+          <a:off x="928250" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -785,7 +785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7536006-E21B-41BB-9564-D423914D1647}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37883F7-D30D-4A1B-A409-A711B5301A5C}">
   <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -797,7 +797,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -892,7 +892,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="21"/>
       <c r="E11" s="7">
-        <v>1948</v>
+        <v>40000</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -963,10 +963,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>1948</v>
+        <v>40000</v>
       </c>
       <c r="G16" s="18">
-        <v>1461163</v>
+        <v>1000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
